--- a/team_specific_matrix/Wright St._B.xlsx
+++ b/team_specific_matrix/Wright St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2396313364055299</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C2">
-        <v>0.4838709677419355</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0184331797235023</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1612903225806452</v>
+        <v>0.1529850746268657</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09677419354838709</v>
+        <v>0.09701492537313433</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008771929824561403</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C3">
-        <v>0.06140350877192982</v>
+        <v>0.05</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02631578947368421</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7543859649122807</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1491228070175439</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.675</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.325</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1102941176470588</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05147058823529412</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2205882352941176</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02941176470588235</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1911764705882353</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R6">
-        <v>0.08823529411764706</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="S6">
-        <v>0.3088235294117647</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09554140127388536</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02547770700636943</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05732484076433121</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1528662420382166</v>
+        <v>0.1319796954314721</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006369426751592357</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1847133757961783</v>
+        <v>0.2030456852791878</v>
       </c>
       <c r="R7">
-        <v>0.09554140127388536</v>
+        <v>0.09137055837563451</v>
       </c>
       <c r="S7">
-        <v>0.3821656050955414</v>
+        <v>0.3756345177664975</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06759443339960239</v>
+        <v>0.07717569786535304</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02186878727634195</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="E8">
-        <v>0.003976143141153081</v>
+        <v>0.003284072249589491</v>
       </c>
       <c r="F8">
-        <v>0.04174950298210735</v>
+        <v>0.0361247947454844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1093439363817097</v>
+        <v>0.110016420361248</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03180914512922465</v>
+        <v>0.02791461412151067</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.194831013916501</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="R8">
-        <v>0.121272365805169</v>
+        <v>0.1165845648604269</v>
       </c>
       <c r="S8">
-        <v>0.4075546719681908</v>
+        <v>0.4187192118226601</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.12</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.048</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.112</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.016</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.152</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="R9">
-        <v>0.096</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S9">
-        <v>0.448</v>
+        <v>0.4135802469135803</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09049773755656108</v>
+        <v>0.08940092165898618</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02828054298642534</v>
+        <v>0.02949308755760369</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0009216589861751152</v>
       </c>
       <c r="F10">
-        <v>0.06447963800904978</v>
+        <v>0.06728110599078341</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1153846153846154</v>
+        <v>0.1078341013824885</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01470588235294118</v>
+        <v>0.01658986175115208</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2251131221719457</v>
+        <v>0.2350230414746544</v>
       </c>
       <c r="R10">
-        <v>0.09615384615384616</v>
+        <v>0.09400921658986175</v>
       </c>
       <c r="S10">
-        <v>0.3653846153846154</v>
+        <v>0.3594470046082949</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1023255813953488</v>
+        <v>0.1021897810218978</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08372093023255814</v>
+        <v>0.08394160583941605</v>
       </c>
       <c r="K11">
-        <v>0.1348837209302326</v>
+        <v>0.135036496350365</v>
       </c>
       <c r="L11">
-        <v>0.6744186046511628</v>
+        <v>0.6642335766423357</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004651162790697674</v>
+        <v>0.0145985401459854</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7549668874172185</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1920529801324503</v>
+        <v>0.1978609625668449</v>
       </c>
       <c r="K12">
-        <v>0.006622516556291391</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="L12">
-        <v>0.01324503311258278</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03311258278145696</v>
+        <v>0.0267379679144385</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.725</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.075</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006289308176100629</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2264150943396226</v>
+        <v>0.2128712871287129</v>
       </c>
       <c r="I15">
-        <v>0.05660377358490566</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="J15">
-        <v>0.3144654088050314</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="K15">
-        <v>0.05660377358490566</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01257861635220126</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0440251572327044</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2830188679245283</v>
+        <v>0.2722772277227723</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2602739726027397</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="I16">
-        <v>0.08904109589041095</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="J16">
-        <v>0.3493150684931507</v>
+        <v>0.3675675675675676</v>
       </c>
       <c r="K16">
-        <v>0.1438356164383562</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03424657534246575</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N16">
-        <v>0.0136986301369863</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="O16">
-        <v>0.0547945205479452</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0547945205479452</v>
+        <v>0.06486486486486487</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01355013550135501</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2682926829268293</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="I17">
-        <v>0.06775067750677506</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J17">
-        <v>0.3414634146341464</v>
+        <v>0.3445378151260504</v>
       </c>
       <c r="K17">
-        <v>0.0975609756097561</v>
+        <v>0.09033613445378151</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02439024390243903</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07046070460704607</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1165311653116531</v>
+        <v>0.1197478991596639</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01630434782608696</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2989130434782609</v>
+        <v>0.2930232558139535</v>
       </c>
       <c r="I18">
-        <v>0.08152173913043478</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="J18">
-        <v>0.3804347826086957</v>
+        <v>0.3767441860465116</v>
       </c>
       <c r="K18">
-        <v>0.07608695652173914</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0108695652173913</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03260869565217391</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1032608695652174</v>
+        <v>0.1116279069767442</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005359056806002144</v>
+        <v>0.006076388888888889</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3011789924973205</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="I19">
-        <v>0.06752411575562701</v>
+        <v>0.07118055555555555</v>
       </c>
       <c r="J19">
-        <v>0.3290460878885316</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="K19">
-        <v>0.1103965702036442</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02465166130760986</v>
+        <v>0.02430555555555556</v>
       </c>
       <c r="N19">
-        <v>0.001071811361200429</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="O19">
-        <v>0.06645230439442658</v>
+        <v>0.06510416666666667</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09431939978563773</v>
+        <v>0.09635416666666667</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wright St._B.xlsx
+++ b/team_specific_matrix/Wright St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2388059701492537</v>
+        <v>0.2375886524822695</v>
       </c>
       <c r="C2">
-        <v>0.4925373134328358</v>
+        <v>0.4964539007092199</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01865671641791045</v>
+        <v>0.01773049645390071</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529850746268657</v>
+        <v>0.1524822695035461</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09701492537313433</v>
+        <v>0.09574468085106383</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007142857142857143</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02857142857142857</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7714285714285715</v>
+        <v>0.7785234899328859</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.1409395973154362</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6896551724137931</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3103448275862069</v>
+        <v>0.3050847457627119</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1071428571428571</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01785714285714286</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04166666666666666</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2321428571428572</v>
+        <v>0.2513661202185792</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02380952380952381</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2083333333333333</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="R6">
-        <v>0.07738095238095238</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="S6">
-        <v>0.2916666666666667</v>
+        <v>0.3060109289617486</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08121827411167512</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04568527918781726</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05583756345177665</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1319796954314721</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01522842639593909</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2030456852791878</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="R7">
-        <v>0.09137055837563451</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="S7">
-        <v>0.3756345177664975</v>
+        <v>0.3605769230769231</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07717569786535304</v>
+        <v>0.07413010590015129</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02298850574712644</v>
+        <v>0.0226928895612708</v>
       </c>
       <c r="E8">
-        <v>0.003284072249589491</v>
+        <v>0.00453857791225416</v>
       </c>
       <c r="F8">
-        <v>0.0361247947454844</v>
+        <v>0.03630862329803328</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.110016420361248</v>
+        <v>0.113464447806354</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02791461412151067</v>
+        <v>0.02874432677760968</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.187192118226601</v>
+        <v>0.1800302571860817</v>
       </c>
       <c r="R8">
-        <v>0.1165845648604269</v>
+        <v>0.1119515885022693</v>
       </c>
       <c r="S8">
-        <v>0.4187192118226601</v>
+        <v>0.4281391830559758</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1234567901234568</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006172839506172839</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04938271604938271</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1049382716049383</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01851851851851852</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2098765432098765</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="R9">
-        <v>0.07407407407407407</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="S9">
-        <v>0.4135802469135803</v>
+        <v>0.4228571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08940092165898618</v>
+        <v>0.08830950378469302</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02949308755760369</v>
+        <v>0.02775441547518924</v>
       </c>
       <c r="E10">
-        <v>0.0009216589861751152</v>
+        <v>0.0008410428931875525</v>
       </c>
       <c r="F10">
-        <v>0.06728110599078341</v>
+        <v>0.06728343145500421</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1078341013824885</v>
+        <v>0.1068124474348192</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01658986175115208</v>
+        <v>0.0159798149705635</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2350230414746544</v>
+        <v>0.2354920100925147</v>
       </c>
       <c r="R10">
-        <v>0.09400921658986175</v>
+        <v>0.09503784693019345</v>
       </c>
       <c r="S10">
-        <v>0.3594470046082949</v>
+        <v>0.3624894869638352</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1021897810218978</v>
+        <v>0.09621993127147767</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08394160583941605</v>
+        <v>0.08934707903780069</v>
       </c>
       <c r="K11">
-        <v>0.135036496350365</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L11">
-        <v>0.6642335766423357</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0145985401459854</v>
+        <v>0.01374570446735395</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7593582887700535</v>
+        <v>0.7638190954773869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1978609625668449</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="K12">
-        <v>0.0053475935828877</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="L12">
-        <v>0.0106951871657754</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0267379679144385</v>
+        <v>0.02512562814070352</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1666666666666667</v>
+        <v>0.18</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004950495049504951</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2128712871287129</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="I15">
-        <v>0.0594059405940594</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="J15">
-        <v>0.3267326732673267</v>
+        <v>0.3165137614678899</v>
       </c>
       <c r="K15">
-        <v>0.04950495049504951</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0198019801980198</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05445544554455446</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2722772277227723</v>
+        <v>0.2752293577981652</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005405405405405406</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.227027027027027</v>
+        <v>0.2205128205128205</v>
       </c>
       <c r="I16">
-        <v>0.0918918918918919</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="J16">
-        <v>0.3675675675675676</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="K16">
-        <v>0.145945945945946</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N16">
-        <v>0.01081081081081081</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="O16">
-        <v>0.05945945945945946</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.06486486486486487</v>
+        <v>0.07179487179487179</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01470588235294118</v>
+        <v>0.01565557729941291</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2647058823529412</v>
+        <v>0.2661448140900196</v>
       </c>
       <c r="I17">
-        <v>0.07142857142857142</v>
+        <v>0.07240704500978473</v>
       </c>
       <c r="J17">
-        <v>0.3445378151260504</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="K17">
-        <v>0.09033613445378151</v>
+        <v>0.09197651663405088</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02100840336134454</v>
+        <v>0.02152641878669276</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07352941176470588</v>
+        <v>0.07436399217221135</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1197478991596639</v>
+        <v>0.1154598825831702</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0186046511627907</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2930232558139535</v>
+        <v>0.2918454935622318</v>
       </c>
       <c r="I18">
-        <v>0.08372093023255814</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="J18">
-        <v>0.3767441860465116</v>
+        <v>0.3776824034334764</v>
       </c>
       <c r="K18">
-        <v>0.07906976744186046</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009302325581395349</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02790697674418605</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1116279069767442</v>
+        <v>0.1158798283261803</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.006076388888888889</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2951388888888889</v>
+        <v>0.2928571428571429</v>
       </c>
       <c r="I19">
-        <v>0.07118055555555555</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="J19">
-        <v>0.3229166666666667</v>
+        <v>0.3301587301587302</v>
       </c>
       <c r="K19">
-        <v>0.1180555555555556</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02430555555555556</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N19">
-        <v>0.0008680555555555555</v>
+        <v>0.0007936507936507937</v>
       </c>
       <c r="O19">
-        <v>0.06510416666666667</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09635416666666667</v>
+        <v>0.09603174603174604</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wright St._B.xlsx
+++ b/team_specific_matrix/Wright St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2375886524822695</v>
+        <v>0.2397260273972603</v>
       </c>
       <c r="C2">
-        <v>0.4964539007092199</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01773049645390071</v>
+        <v>0.01712328767123288</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1524822695035461</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09574468085106383</v>
+        <v>0.09931506849315068</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006711409395973154</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C3">
-        <v>0.04697986577181208</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02684563758389262</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7785234899328859</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1409395973154362</v>
+        <v>0.1437908496732026</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6949152542372882</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3050847457627119</v>
+        <v>0.2950819672131147</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09836065573770492</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01639344262295082</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03825136612021858</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2513661202185792</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02185792349726776</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1967213114754098</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="R6">
-        <v>0.07103825136612021</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="S6">
-        <v>0.3060109289617486</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08173076923076923</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04326923076923077</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05288461538461538</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1346153846153846</v>
+        <v>0.1342592592592593</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2019230769230769</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="R7">
-        <v>0.1057692307692308</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="S7">
-        <v>0.3605769230769231</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07413010590015129</v>
+        <v>0.0747800586510264</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0226928895612708</v>
+        <v>0.02199413489736071</v>
       </c>
       <c r="E8">
-        <v>0.00453857791225416</v>
+        <v>0.004398826979472141</v>
       </c>
       <c r="F8">
-        <v>0.03630862329803328</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.113464447806354</v>
+        <v>0.1114369501466276</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02874432677760968</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1800302571860817</v>
+        <v>0.1832844574780059</v>
       </c>
       <c r="R8">
-        <v>0.1119515885022693</v>
+        <v>0.1114369501466276</v>
       </c>
       <c r="S8">
-        <v>0.4281391830559758</v>
+        <v>0.4281524926686217</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1142857142857143</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005714285714285714</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05142857142857143</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1085714285714286</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01714285714285714</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2057142857142857</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="R9">
-        <v>0.07428571428571429</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="S9">
-        <v>0.4228571428571429</v>
+        <v>0.4301075268817204</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08830950378469302</v>
+        <v>0.08840227088402271</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02775441547518924</v>
+        <v>0.0275750202757502</v>
       </c>
       <c r="E10">
-        <v>0.0008410428931875525</v>
+        <v>0.0008110300081103001</v>
       </c>
       <c r="F10">
-        <v>0.06728343145500421</v>
+        <v>0.0689375506893755</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1068124474348192</v>
+        <v>0.1062449310624493</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0159798149705635</v>
+        <v>0.0170316301703163</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2354920100925147</v>
+        <v>0.2368207623682076</v>
       </c>
       <c r="R10">
-        <v>0.09503784693019345</v>
+        <v>0.09570154095701541</v>
       </c>
       <c r="S10">
-        <v>0.3624894869638352</v>
+        <v>0.3584752635847526</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09621993127147767</v>
+        <v>0.1006493506493507</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08934707903780069</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K11">
-        <v>0.134020618556701</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.6558441558441559</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01374570446735395</v>
+        <v>0.01298701298701299</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7638190954773869</v>
+        <v>0.7596153846153846</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1959798994974874</v>
+        <v>0.1971153846153846</v>
       </c>
       <c r="K12">
-        <v>0.005025125628140704</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="L12">
-        <v>0.01005025125628141</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02512562814070352</v>
+        <v>0.02403846153846154</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004587155963302753</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2293577981651376</v>
+        <v>0.2202643171806167</v>
       </c>
       <c r="I15">
-        <v>0.05504587155963303</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="J15">
-        <v>0.3165137614678899</v>
+        <v>0.3127753303964758</v>
       </c>
       <c r="K15">
-        <v>0.04587155963302753</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01834862385321101</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05504587155963303</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2752293577981652</v>
+        <v>0.2775330396475771</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005128205128205128</v>
+        <v>0.005</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2205128205128205</v>
+        <v>0.225</v>
       </c>
       <c r="I16">
-        <v>0.09230769230769231</v>
+        <v>0.095</v>
       </c>
       <c r="J16">
-        <v>0.3692307692307693</v>
+        <v>0.365</v>
       </c>
       <c r="K16">
-        <v>0.1435897435897436</v>
+        <v>0.145</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="N16">
-        <v>0.01025641025641026</v>
+        <v>0.01</v>
       </c>
       <c r="O16">
-        <v>0.06153846153846154</v>
+        <v>0.06</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07179487179487179</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01565557729941291</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2661448140900196</v>
+        <v>0.2593283582089552</v>
       </c>
       <c r="I17">
-        <v>0.07240704500978473</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="J17">
-        <v>0.3424657534246575</v>
+        <v>0.3470149253731343</v>
       </c>
       <c r="K17">
-        <v>0.09197651663405088</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02152641878669276</v>
+        <v>0.02052238805970149</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07436399217221135</v>
+        <v>0.07276119402985075</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1154598825831702</v>
+        <v>0.1175373134328358</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01716738197424893</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2918454935622318</v>
+        <v>0.2904564315352697</v>
       </c>
       <c r="I18">
-        <v>0.0815450643776824</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="J18">
-        <v>0.3776824034334764</v>
+        <v>0.3692946058091287</v>
       </c>
       <c r="K18">
-        <v>0.07725321888412018</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0128755364806867</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02575107296137339</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1158798283261803</v>
+        <v>0.1120331950207469</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007142857142857143</v>
+        <v>0.006885998469778117</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2928571428571429</v>
+        <v>0.2930374904361132</v>
       </c>
       <c r="I19">
-        <v>0.07222222222222222</v>
+        <v>0.07115531752104055</v>
       </c>
       <c r="J19">
-        <v>0.3301587301587302</v>
+        <v>0.3320581484315226</v>
       </c>
       <c r="K19">
-        <v>0.1150793650793651</v>
+        <v>0.1140015302218822</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02222222222222222</v>
+        <v>0.02142310635042081</v>
       </c>
       <c r="N19">
-        <v>0.0007936507936507937</v>
+        <v>0.0007651109410864575</v>
       </c>
       <c r="O19">
-        <v>0.06349206349206349</v>
+        <v>0.06426931905126243</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09603174603174604</v>
+        <v>0.09640397857689365</v>
       </c>
     </row>
   </sheetData>
